--- a/August/9-12/sql-vs-nosql.xlsx
+++ b/August/9-12/sql-vs-nosql.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERIC NGUYEN\Documents\web_dev\github\code\August\9-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{120D4266-9AF5-412E-AA10-2DEB0AE4F1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA230D38-F4C9-44E3-8AB3-537E8E925066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23670" yWindow="2625" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D7D415-EAED-4073-9F0B-F321D91E7C49}"/>
+    <workbookView xWindow="-28920" yWindow="-915" windowWidth="29040" windowHeight="15720" xr2:uid="{D2D7D415-EAED-4073-9F0B-F321D91E7C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>posts</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>ughh</t>
+  </si>
+  <si>
+    <t>post_id</t>
   </si>
 </sst>
 </file>
@@ -434,15 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF16FFF-28F0-4B02-95C7-41377562C168}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -466,8 +472,11 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -483,8 +492,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -500,8 +512,11 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -517,21 +532,30 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
